--- a/Assets/Tables/plot_paragraph.xlsx
+++ b/Assets/Tables/plot_paragraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\GitLab\yh-project\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5679A8CC-0392-47C4-B665-ECD5921CFE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890740FF-5435-474A-BDC0-CF63D028A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plot_paragraph" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>map_id</t>
   </si>
@@ -73,6 +73,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -85,6 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,6 +131,7 @@
         <sz val="11"/>
         <color theme="6"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +143,7 @@
         <sz val="11"/>
         <color theme="6"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -154,6 +158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,6 +185,7 @@
         <sz val="11"/>
         <color theme="6"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,6 +197,7 @@
         <sz val="11"/>
         <color theme="6"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -204,6 +212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -214,6 +223,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,9 +244,6 @@
 内容</t>
   </si>
   <si>
-    <t>货箱</t>
-  </si>
-  <si>
     <t>“交互范围”统一放到config里，配成 ±25.0f 即可</t>
   </si>
   <si>
@@ -259,21 +266,6 @@
   </si>
   <si>
     <t>campfire</t>
-  </si>
-  <si>
-    <t>落难旅人</t>
-  </si>
-  <si>
-    <t>购买食物</t>
-  </si>
-  <si>
-    <t>讨要食物</t>
-  </si>
-  <si>
-    <t>购买维修工具</t>
-  </si>
-  <si>
-    <t>讨要维修工具</t>
   </si>
   <si>
     <t>plot id</t>
@@ -360,15 +352,147 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>45001;45003;45031</t>
+    <t>自由职业者</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨子</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>工匠</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织工</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller_cook</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller_craftsman</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller_hunter</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎户</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>落难旅人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>落难老翁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨要/购买食物</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨要/购买维修工具</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>stranded_traveler_item</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>stranded_traveler</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller_weaver</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>果丛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤的猎物</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源采集</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单赠送</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>collet_fruit</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>collet_fiber</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>collet_glue</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>collet_timber</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>collet_stone</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>collet_meat</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>45001;45002;45003;45004;45031;45041</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜农</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller_peasant</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯木林</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱石堆</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>废矿坑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤蔓丛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>collet_ore</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>生胶木</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +504,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -387,6 +512,7 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -394,6 +520,7 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -402,6 +529,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -409,6 +537,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,6 +546,7 @@
       <sz val="11"/>
       <color theme="6"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -426,6 +556,7 @@
       <sz val="11"/>
       <color theme="6"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -435,6 +566,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -443,12 +575,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -476,16 +610,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -606,7 +738,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -898,7 +1030,7 @@
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -951,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -967,8 +1099,8 @@
       <c r="C5" s="4">
         <v>600</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>65</v>
+      <c r="D5" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -981,8 +1113,8 @@
       <c r="C6" s="4">
         <v>450</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>65</v>
+      <c r="D6" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -995,8 +1127,8 @@
       <c r="C7" s="4">
         <v>600</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>65</v>
+      <c r="D7" s="25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,23 +1215,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="16" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.625" style="14" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="14" customWidth="1"/>
     <col min="10" max="11" width="9.125" style="14"/>
     <col min="12" max="12" width="9.125" style="17"/>
@@ -1184,366 +1316,688 @@
       <c r="A4" s="14">
         <v>45001</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>28</v>
+      <c r="B4" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F4" s="14" t="str">
         <f>_xlfn.TEXTJOIN("_",1,"esdg",$A4,$D4)</f>
         <v>esdg_45001_wooden_box_coin</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H4" s="14" t="str">
-        <f t="shared" ref="H4:H15" si="0">_xlfn.TEXTJOIN("_",1,"esar",$A4)</f>
-        <v>esar_45001</v>
+        <f t="shared" ref="H4" si="0">_xlfn.TEXTJOIN("_",1,"esar",$A4,$D4)</f>
+        <v>esar_45001_wooden_box_coin</v>
       </c>
       <c r="I4" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L4" s="23">
         <v>1</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>45002</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
+      <c r="B5" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F5" s="14" t="str">
-        <f t="shared" ref="F5:F15" si="1">_xlfn.TEXTJOIN("_",1,"esdg",$A5,$D5)</f>
+        <f t="shared" ref="F5:F25" si="1">_xlfn.TEXTJOIN("_",1,"esdg",$A5,$D5)</f>
         <v>esdg_45002_wooden_box_food</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>esar_45002</v>
+        <f t="shared" ref="H5:H18" si="2">_xlfn.TEXTJOIN("_",1,"esar",$A5,$D5)</f>
+        <v>esar_45002_wooden_box_food</v>
       </c>
       <c r="I5" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>45003</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>28</v>
+      <c r="B6" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>esdg_45003_wooden_box_wood</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>esar_45003</v>
+        <f t="shared" si="2"/>
+        <v>esar_45003_wooden_box_wood</v>
       </c>
       <c r="I6" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>45004</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>28</v>
+      <c r="B7" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>esdg_45004_wooden_box_weapon_parts</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>esar_45004</v>
+        <f t="shared" si="2"/>
+        <v>esar_45004_wooden_box_weapon_parts</v>
       </c>
       <c r="I7" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>45011</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>38</v>
+      <c r="B8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F8" s="14" t="str">
         <f>_xlfn.TEXTJOIN("_",1,"esdg",$A8,$D8)</f>
-        <v>esdg_45011</v>
+        <v>esdg_45011_stranded_traveler_item</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"esar",$A8)</f>
-        <v>esar_45011</v>
+        <v>58</v>
+      </c>
+      <c r="H8" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45011_stranded_traveler_item</v>
       </c>
       <c r="I8" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>45012</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>39</v>
+      <c r="B9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>_xlfn.TEXTJOIN("_",1,"esdg",$A9,$D9)</f>
-        <v>esdg_45012</v>
+        <v>esdg_45012_stranded_traveler</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"esar",$A9)</f>
-        <v>esar_45012</v>
+        <v>58</v>
+      </c>
+      <c r="H9" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45012_stranded_traveler</v>
       </c>
       <c r="I9" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
-        <v>45013</v>
+        <v>45020</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F10" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"esdg",$A10,$D10)</f>
-        <v>esdg_45013</v>
+        <f t="shared" si="1"/>
+        <v>esdg_45020_campfire</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"esar",$A10)</f>
-        <v>esar_45013</v>
+        <v>58</v>
+      </c>
+      <c r="H10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45020_campfire</v>
       </c>
       <c r="I10" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
-        <v>45014</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>41</v>
+        <v>45031</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"esdg",$A11,$D11)</f>
-        <v>esdg_45014</v>
+        <f t="shared" si="1"/>
+        <v>esdg_45031_altar_blessing</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"esar",$A11)</f>
-        <v>esar_45014</v>
+        <f t="shared" si="2"/>
+        <v>esar_45031_altar_blessing</v>
       </c>
       <c r="I11" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <v>45020</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>36</v>
+        <v>45032</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>esdg_45020_campfire</v>
+        <v>esdg_45032_altar_mysteries</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>esar_45020</v>
+        <v>58</v>
+      </c>
+      <c r="H12" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45032_altar_mysteries</v>
       </c>
       <c r="I12" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <v>45031</v>
+        <v>45033</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>esdg_45031_altar_blessing</v>
+        <v>esdg_45033_altar_cult</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>esar_45031</v>
+        <v>58</v>
+      </c>
+      <c r="H13" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45033_altar_cult</v>
       </c>
       <c r="I13" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <v>45032</v>
+        <v>45041</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>esdg_45032_altar_mysteries</v>
+        <v>esdg_45041_traveller_cook</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>esar_45032</v>
+        <f t="shared" si="2"/>
+        <v>esar_45041_traveller_cook</v>
       </c>
       <c r="I14" s="14">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <v>45033</v>
+        <v>45042</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>esdg_45033_altar_cult</v>
+        <v>esdg_45042_traveller_craftsman</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>esar_45033</v>
+        <v>58</v>
+      </c>
+      <c r="H15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45042_traveller_craftsman</v>
       </c>
       <c r="I15" s="14">
-        <v>30</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>45043</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>esdg_45043_traveller_hunter</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45043_traveller_hunter</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>45044</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>esdg_45044_traveller_weaver</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45044_traveller_weaver</v>
+      </c>
+      <c r="I17" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>45045</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>esdg_45045_traveller_peasant</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>esar_45045_traveller_peasant</v>
+      </c>
+      <c r="I18" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>45061</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"esdg",$A19,$D19)</f>
+        <v>esdg_45061_collet_fruit</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"esar",$A19,$D19)</f>
+        <v>esar_45061_collet_fruit</v>
+      </c>
+      <c r="I19" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>45062</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"esdg",$A20,$D20)</f>
+        <v>esdg_45062_collet_timber</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"esar",$A20,$D20)</f>
+        <v>esar_45062_collet_timber</v>
+      </c>
+      <c r="I20" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>45063</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"esdg",$A21,$D21)</f>
+        <v>esdg_45063_collet_stone</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="28" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"esar",$A21,$D21)</f>
+        <v>esar_45063_collet_stone</v>
+      </c>
+      <c r="I21" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>45064</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>esdg_45064_collet_ore</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="28" t="str">
+        <f t="shared" ref="H22:H25" si="3">_xlfn.TEXTJOIN("_",1,"esar",$A22,$D22)</f>
+        <v>esar_45064_collet_ore</v>
+      </c>
+      <c r="I22" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>45065</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>esdg_45065_collet_fiber</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>esar_45065_collet_fiber</v>
+      </c>
+      <c r="I23" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>45066</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>esdg_45066_collet_glue</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>esar_45066_collet_glue</v>
+      </c>
+      <c r="I24" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>45067</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>esdg_45067_collet_meat</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>esar_45067_collet_meat</v>
+      </c>
+      <c r="I25" s="14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1572,16 +2026,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1597,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1610,16 +2064,16 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1635,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11">
         <v>3</v>
@@ -1658,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11">
         <v>4</v>
@@ -1681,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11">
         <v>3</v>
@@ -1704,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11">
         <v>4</v>
@@ -1727,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
@@ -1750,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="11">
         <v>4</v>
@@ -1773,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11">
         <v>3</v>
@@ -1796,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11">
         <v>4</v>
